--- a/biology/Zoologie/Cephalotes_olmecus/Cephalotes_olmecus.xlsx
+++ b/biology/Zoologie/Cephalotes_olmecus/Cephalotes_olmecus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes olmecus est une espèce fossile de fourmis arboricoles du genre Cephalotes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes olmecus est une espèce fossile de fourmis arboricoles du genre Cephalotes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nous ne disposons pas d'assez de données concernant cette espèce pour déterminer avec certitude son endémisme[3]. Cette espèce a été découverte de l'ambre mexicain[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nous ne disposons pas d'assez de données concernant cette espèce pour déterminer avec certitude son endémisme. Cette espèce a été découverte de l'ambre mexicain.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[5]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -573,11 +589,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cephalotes olmecus a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d)[6] dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d)[4].
-Étymologie
-Son épithète spécifique, olmecus, fait référence aux Olmèques[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cephalotes olmecus a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d) dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cephalotes_olmecus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephalotes_olmecus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, olmecus, fait référence aux Olmèques.
 </t>
         </is>
       </c>
